--- a/Day 22/Test.xlsx
+++ b/Day 22/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattk\Documents\GitHub\AdventOfCode2016\Day 22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D1E35B-8D92-49DD-A255-16C45B6EC829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF99B65-91B3-463E-B0B5-A797A01E3F6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="942">
   <si>
     <t>x</t>
   </si>
@@ -2836,6 +2836,27 @@
   </si>
   <si>
     <t>Empty node</t>
+  </si>
+  <si>
+    <t>Hole is blue 5 steps later with goal data to the left of it</t>
+  </si>
+  <si>
+    <t>Goal data then shifts to the left, game over</t>
+  </si>
+  <si>
+    <t>Hole is orange at 51 steps (all the way up, all the way over going around the wall o' 90s)</t>
+  </si>
+  <si>
+    <t>This is 100 steps from the initial hole move (total = 151).  Hole is at [0, 15] and goal data is to the left</t>
+  </si>
+  <si>
+    <t>50 steps later (total = 201)</t>
+  </si>
+  <si>
+    <t>25 steps later (total = 226)</t>
+  </si>
+  <si>
+    <t>Answer = 227</t>
   </si>
 </sst>
 </file>
@@ -2875,7 +2896,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2900,6 +2921,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2914,7 +2965,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2944,6 +2995,26 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3228,7 +3299,7 @@
   <dimension ref="A1:AT926"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3404,7 +3475,7 @@
       <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="21">
         <f>VLOOKUP(J$1&amp;"."&amp;$I2,$C$1:$G$926,5,FALSE)</f>
         <v>81</v>
       </c>
@@ -3424,7 +3495,7 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="19">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
@@ -3464,7 +3535,7 @@
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="17">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
@@ -3540,11 +3611,11 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="AR2" s="3">
+      <c r="AR2" s="15">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="AS2" s="3">
+      <c r="AS2" s="13">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
@@ -4642,15 +4713,15 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="9">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="9">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="9">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
@@ -4658,115 +4729,115 @@
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="9">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="9">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="9">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="9">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="9">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="9">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="9">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="9">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="9">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="9">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AC9" s="9">
         <f t="shared" ref="K9:AT16" si="2">VLOOKUP(AC$1&amp;"."&amp;$I9,$C$1:$G$926,5,FALSE)</f>
         <v>97</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="9">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AE9" s="9">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AF9" s="9">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AG9" s="9">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="AH9" s="3">
+      <c r="AH9" s="9">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="AI9" s="3">
+      <c r="AI9" s="9">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="AJ9" s="3">
+      <c r="AJ9" s="9">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="AK9" s="3">
+      <c r="AK9" s="9">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="AL9" s="3">
+      <c r="AL9" s="9">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="AM9" s="3">
+      <c r="AM9" s="9">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="AN9" s="3">
+      <c r="AN9" s="9">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="AO9" s="3">
+      <c r="AO9" s="9">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="AP9" s="3">
+      <c r="AP9" s="9">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="AQ9" s="3">
+      <c r="AQ9" s="9">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="AR9" s="3">
+      <c r="AR9" s="9">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="AS9" s="3">
+      <c r="AS9" s="9">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="AT9" s="3">
+      <c r="AT9" s="9">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
@@ -7878,8 +7949,12 @@
       <c r="G32" s="5">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Q32" s="14"/>
+      <c r="R32" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -7901,8 +7976,12 @@
       <c r="G33" s="5">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Q33" s="16"/>
+      <c r="R33" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -7924,8 +8003,12 @@
       <c r="G34" s="5">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Q34" s="18"/>
+      <c r="R34" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -7947,8 +8030,12 @@
       <c r="G35" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Q35" s="20"/>
+      <c r="R35" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -7970,8 +8057,12 @@
       <c r="G36" s="5">
         <v>79</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Q36" s="22"/>
+      <c r="R36" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>1</v>
       </c>
@@ -7993,8 +8084,11 @@
       <c r="G37" s="5">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="R37" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -8016,8 +8110,11 @@
       <c r="G38" s="5">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="R38" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>1</v>
       </c>
@@ -8040,7 +8137,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>1</v>
       </c>
@@ -8063,7 +8160,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>1</v>
       </c>
@@ -8086,7 +8183,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>1</v>
       </c>
@@ -8109,7 +8206,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>1</v>
       </c>
@@ -8132,7 +8229,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>1</v>
       </c>
@@ -8155,7 +8252,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>1</v>
       </c>
@@ -8178,7 +8275,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>1</v>
       </c>
@@ -8201,7 +8298,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>1</v>
       </c>
@@ -8224,7 +8321,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>1</v>
       </c>
